--- a/data/hotels_by_city/Houston/Houston_shard_561.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_561.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55879-d5783604-Reviews-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Rodeway-Inn.h19773.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,586 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r591900279-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>5783604</t>
+  </si>
+  <si>
+    <t>591900279</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>BEDBUGS EVERYWHERE!!!! Zero Stars Would Be Too Many!!! Dirty &amp; Disgusting!!! Total Dive!!!</t>
+  </si>
+  <si>
+    <t>This is the dirtiest hotel I have ever seen! It’s like a third-world country! We booked these rooms for a pre-cruise overnight stay and for $150 per room we were delighted to find affordable accommodations and free cruise parking. We had three rooms. 2 had bedbug debris on the mattresses, 1 had living bedbugs. Before we decided to leave and go to a different hotel we checked out two other rooms and both had living bedbugs in the headboards and drawer rails. We are calling the health department on this place! You can see from the pictures how dirty and disgusting everything is. The mattresses had crumbs, hair, stains, spiders and the bedding had cigarette burns. The mattresses were thin, old, stained and flimsy. There was dirt and debris all over the floor. There were so many stains on the carpets I can’t believe this hotel thinks these rooms are habitable. No microwave, fridge, coffee pot.... thrift store quality furniture.... just terrible! The manager could really care less. They thought they could overcome the bedbugs by giving us 50% off. I wouldn’t stay if the rooms were free! I will never stay in another Rodeway or Choice brand hotel! We promptly left for the Candlewood Inn and Suites in Texas City and had the most luxurious and comfortable room for the same price. Don’t stay here. At any price it’s not worth it! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This is the dirtiest hotel I have ever seen! It’s like a third-world country! We booked these rooms for a pre-cruise overnight stay and for $150 per room we were delighted to find affordable accommodations and free cruise parking. We had three rooms. 2 had bedbug debris on the mattresses, 1 had living bedbugs. Before we decided to leave and go to a different hotel we checked out two other rooms and both had living bedbugs in the headboards and drawer rails. We are calling the health department on this place! You can see from the pictures how dirty and disgusting everything is. The mattresses had crumbs, hair, stains, spiders and the bedding had cigarette burns. The mattresses were thin, old, stained and flimsy. There was dirt and debris all over the floor. There were so many stains on the carpets I can’t believe this hotel thinks these rooms are habitable. No microwave, fridge, coffee pot.... thrift store quality furniture.... just terrible! The manager could really care less. They thought they could overcome the bedbugs by giving us 50% off. I wouldn’t stay if the rooms were free! I will never stay in another Rodeway or Choice brand hotel! We promptly left for the Candlewood Inn and Suites in Texas City and had the most luxurious and comfortable room for the same price. Don’t stay here. At any price it’s not worth it! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r591301295-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>591301295</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Do not recommend this hotel</t>
+  </si>
+  <si>
+    <t>This was the worst hotel/motel stay I have had in nearly twenty years and I am on the road at least six times a year.  The room was OK and most of the staff were fine but I had no WiFi and a TV that didn't work properly for my whole 5-day stay.I was told numerous times someone would fix it "today/tomorrow" or that the owner was working on it but never had it fixed, no communication, no update, no apologies.  The owner was there twice and didn't even look at me when I told staff about these issues.  This man clearly does not belong in the hospitality industry.I have been treated better - much better - in third world countries.  There is a Motel 6 up the street and plenty of other hotels in town to use instead.  Why ruin your trip with a lousy hotel stay?MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the worst hotel/motel stay I have had in nearly twenty years and I am on the road at least six times a year.  The room was OK and most of the staff were fine but I had no WiFi and a TV that didn't work properly for my whole 5-day stay.I was told numerous times someone would fix it "today/tomorrow" or that the owner was working on it but never had it fixed, no communication, no update, no apologies.  The owner was there twice and didn't even look at me when I told staff about these issues.  This man clearly does not belong in the hospitality industry.I have been treated better - much better - in third world countries.  There is a Motel 6 up the street and plenty of other hotels in town to use instead.  Why ruin your trip with a lousy hotel stay?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r590588644-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>590588644</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms on June 23 2018 and I will never stay at this hotel again.  No Wi-Fi, in either room available, one of our rooms did not have a phone in it and after contacting room service they never brought one. Hardly any signal for cell phones while in the rooms. People walking around vehicles at all hours of the night, noisy and the bed mattress in these rooms are hard as a rock.  Do yourself a favor and book rooms elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r557251850-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>557251850</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t stay in this hotel Awful management </t>
+  </si>
+  <si>
+    <t>Worst hotel stay: multiple large cockroaches on walls, floor and bed, plus no water at the room and shower I mean there was no water in shower or sink, I did not sleep. rude receptionist ever! GM Bipin Patel unprofessional and has a  poor management.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r545168084-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>545168084</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Good for Night Before Cruise</t>
+  </si>
+  <si>
+    <t>I had an issue on Choice website with reservation ... called hotel and spoke with owner, he sorted it out no problem.  This hotel is perfect for overnight before a cruise - we stayed 2.  This maintenance is not pristine but it's clean and comfy.  No real breakfast just pastries and coffee.  I need extra pillows for my back from a horror hotel the night before - he gave me all I needed. Price cannot be beat for the area.  He also lets you park there for the cruise but we did not.  It's not in the best area on the island.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r536423380-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>536423380</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>little sketchy on the outside.</t>
+  </si>
+  <si>
+    <t>Place was a little sketchy on the outside.  I think there were hurricane refugees staying there ( laundry out on the stairs drying etc).  I was a little scared, but room was fine for a nights stay.  Would I recomend staying?   not sure about that.  Although we had no trouble whatsoever- the room was ok, a/c worked ok, room was mostly clean.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r514022354-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>514022354</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Good Place to Enjoy the Beach on a Budget</t>
+  </si>
+  <si>
+    <t>I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.
+I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.
+The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)
+The room was a pleasant surprise. The bed was king-sized and comfortable. The comforter did have cigarette burns but it was clean and nothing smelled smoky. The room was very clean. While my partner complained that the water pulsed, I didn't share that experience.
+We came in sandy but the housekeepers were excellent at cleaning up all signs of sand. The showerhead had enough power to rid us of sand. (Tip: Always check your belly button for sand!) The room was quiet. It had an added benefit: we could watch the city's firework show from our room (on the second floor).
+The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than...I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)The room was a pleasant surprise. The bed was king-sized and comfortable. The comforter did have cigarette burns but it was clean and nothing smelled smoky. The room was very clean. While my partner complained that the water pulsed, I didn't share that experience.We came in sandy but the housekeepers were excellent at cleaning up all signs of sand. The showerhead had enough power to rid us of sand. (Tip: Always check your belly button for sand!) The room was quiet. It had an added benefit: we could watch the city's firework show from our room (on the second floor).The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than once a day. However, I understand that hotel guests often steal towels, especially in a beach town. We'd brought extras from home because of that.At this price with these amenities, I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.
+I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.
+The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)
+The room was a pleasant surprise. The bed was king-sized and comfortable. The comforter did have cigarette burns but it was clean and nothing smelled smoky. The room was very clean. While my partner complained that the water pulsed, I didn't share that experience.
+We came in sandy but the housekeepers were excellent at cleaning up all signs of sand. The showerhead had enough power to rid us of sand. (Tip: Always check your belly button for sand!) The room was quiet. It had an added benefit: we could watch the city's firework show from our room (on the second floor).
+The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than...I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)The room was a pleasant surprise. The bed was king-sized and comfortable. The comforter did have cigarette burns but it was clean and nothing smelled smoky. The room was very clean. While my partner complained that the water pulsed, I didn't share that experience.We came in sandy but the housekeepers were excellent at cleaning up all signs of sand. The showerhead had enough power to rid us of sand. (Tip: Always check your belly button for sand!) The room was quiet. It had an added benefit: we could watch the city's firework show from our room (on the second floor).The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than once a day. However, I understand that hotel guests often steal towels, especially in a beach town. We'd brought extras from home because of that.At this price with these amenities, I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r492280107-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>492280107</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you pay for.. </t>
+  </si>
+  <si>
+    <t>You get what you pay for last minute booking for a trip and others were 2-3x the price. Hotel is very dated. Lobby had a small window unit and was about 80-85 degree inside. Lady at front desk was swamped people calling non-stop and a lobby was packed with check ins. Took about 20-30 minutes to get checked in. Stairs to upper level are very tiny and sketchy. First walk thru the room found several hairs all over, blood on the mini fridge, and what appears to be a bloody hand print on the door. AC only worked on one setting, tv room didn't work, was told we could be moved but we had already settled into the room and figured we wouldn't spend much time in the room anyway. Price is cheap but at a cost of cleanliness and or luxuries. Won't stay here again we will book our next trip in advance at a nicer hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for last minute booking for a trip and others were 2-3x the price. Hotel is very dated. Lobby had a small window unit and was about 80-85 degree inside. Lady at front desk was swamped people calling non-stop and a lobby was packed with check ins. Took about 20-30 minutes to get checked in. Stairs to upper level are very tiny and sketchy. First walk thru the room found several hairs all over, blood on the mini fridge, and what appears to be a bloody hand print on the door. AC only worked on one setting, tv room didn't work, was told we could be moved but we had already settled into the room and figured we wouldn't spend much time in the room anyway. Price is cheap but at a cost of cleanliness and or luxuries. Won't stay here again we will book our next trip in advance at a nicer hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r486654010-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>486654010</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Out of Sight</t>
+  </si>
+  <si>
+    <t>We had a room with a king-size bed, TV, refrigerator and air conditioning.  There was also a desk area with a phone.  I didn't see any of the plug-ins for a computer if one needed one.The bed was very comfortable and the shower had good water pressure for a nice shower.Even though the hotel is next to a busy highway, our room was quiet.  We had room 104.When we took the exit off of I-45 for the hotel, the sign, and entrance, were hidden by tall shrubs and trees.  We missed the hotel entrance and had to drive around a few blocks trying to find a way back into the entrance.  We sent an e-mail to the hotel suggesting that whomever owns the tall shrubs and trees to trim them back so that the hotel sign could be seen.The receptionist had a map of Galveston Island and we asked if we could get one.  She told us sure, for $3.50.  We bought one so that we could see how to get to the ship port for our cruise.  It would be nice if the hotel had the same map in a smaller format to be given to their guests.This hotel is a very good place to stay for a night or two either before or after a cruise.  The price was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had a room with a king-size bed, TV, refrigerator and air conditioning.  There was also a desk area with a phone.  I didn't see any of the plug-ins for a computer if one needed one.The bed was very comfortable and the shower had good water pressure for a nice shower.Even though the hotel is next to a busy highway, our room was quiet.  We had room 104.When we took the exit off of I-45 for the hotel, the sign, and entrance, were hidden by tall shrubs and trees.  We missed the hotel entrance and had to drive around a few blocks trying to find a way back into the entrance.  We sent an e-mail to the hotel suggesting that whomever owns the tall shrubs and trees to trim them back so that the hotel sign could be seen.The receptionist had a map of Galveston Island and we asked if we could get one.  She told us sure, for $3.50.  We bought one so that we could see how to get to the ship port for our cruise.  It would be nice if the hotel had the same map in a smaller format to be given to their guests.This hotel is a very good place to stay for a night or two either before or after a cruise.  The price was very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r463260312-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>463260312</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Very decent and affordable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean, the pool was great, 5/10 min within beach access. The staff was friendly and welcoming. The breakfast variety was was refreshing, and was great quality. The tv had an hdmi cable to connect your laptop for a movie on Netflix. It was a great stay &amp; for a very affordable price. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r460897338-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>460897338</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>Overall I only gave this hotel a 3. This is a inexpensive "Clean" place to stay. I didn't see any bugs or issue there. It it very dated ! We were here during the Mardi Gras weekend so it was slim pickings for a room. For 1 night pre cruise it worked just fine. Nice staf , minimal breakfast?But we didn't mind because the ship is full of food.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r458504849-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>458504849</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>A very clean room, with minimal breakfast.</t>
+  </si>
+  <si>
+    <t>This was a low cost night prior to the cruise.  The room is clean.  We parked the car and left it while on the cruise.  It was in perfect condition when we returned.  The only difficulty is the cab service.  We finally called yellow cab and they are great.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r432507284-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>432507284</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Pre-Cruise Nightmare at ROACH MOTEL</t>
+  </si>
+  <si>
+    <t>Stayed Oct 21, 2016 for a cruise leaving next day. We had a previous stay earlier in the year (February 2016) with no problems, so booked again BIG BIG MISTAKE!!!! Looked like average room until you got up at night and turn lights on. Roaches all sizes EVERYWHERE!!!! So of course no more sleep to keep an eye on critters.Told front desk personnel next morning and reply was we've had complaints about the roach problem but owner will not take care of problem. No partial refund offered, not even an apology. I WILL NOT EVER stay at this place again. There were 3 adults and 1 child. Fee was right at $94.00 for the night. OUTRAGEOUS!!!!! for what you get. The continental breakfast was also something to pass on.Think twice and read other reviews before you book here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed Oct 21, 2016 for a cruise leaving next day. We had a previous stay earlier in the year (February 2016) with no problems, so booked again BIG BIG MISTAKE!!!! Looked like average room until you got up at night and turn lights on. Roaches all sizes EVERYWHERE!!!! So of course no more sleep to keep an eye on critters.Told front desk personnel next morning and reply was we've had complaints about the roach problem but owner will not take care of problem. No partial refund offered, not even an apology. I WILL NOT EVER stay at this place again. There were 3 adults and 1 child. Fee was right at $94.00 for the night. OUTRAGEOUS!!!!! for what you get. The continental breakfast was also something to pass on.Think twice and read other reviews before you book here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r428299073-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>428299073</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Roach Motel</t>
+  </si>
+  <si>
+    <t>if I could rate this place a "0" I would.  DO NOT STAY THERE!  We stayed there since it was close to the cruise ship pier and i had the points.  I reserved the room over 2 weeks ago on the Choice website so I figured they at least looked at their properties... WRONG!  We checked in pretty last but i guess i should have known something was wrong when the guy in the front showed me the breakfast area.  I didn't let it bother me to much since we were going to be up &amp; out pretty early.  We get to the room &amp; as soon as open the door the baby roaches scatter.  I immediately call Choice Hotels 1-800 number to inform them their property is less than up to par &amp; I feel since it was falsely advertised on their site they should accommodate me at another of their locations using the same points but the supervisor on duty "RAY" was LESS THAN ACCOMMODATING!  I have to say I has VERY disappointed with the customer service or lack there of &amp; needless to say I'm writing this review from another hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>if I could rate this place a "0" I would.  DO NOT STAY THERE!  We stayed there since it was close to the cruise ship pier and i had the points.  I reserved the room over 2 weeks ago on the Choice website so I figured they at least looked at their properties... WRONG!  We checked in pretty last but i guess i should have known something was wrong when the guy in the front showed me the breakfast area.  I didn't let it bother me to much since we were going to be up &amp; out pretty early.  We get to the room &amp; as soon as open the door the baby roaches scatter.  I immediately call Choice Hotels 1-800 number to inform them their property is less than up to par &amp; I feel since it was falsely advertised on their site they should accommodate me at another of their locations using the same points but the supervisor on duty "RAY" was LESS THAN ACCOMMODATING!  I have to say I has VERY disappointed with the customer service or lack there of &amp; needless to say I'm writing this review from another hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r422188663-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>422188663</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw The Texas Tenors tape new PBS special at Grand 1894 Opera House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodeway Inn: Great price,  very friendly and helpful staff,  clean facility.  Was close to the beautiful Grand 1894 Opera House as well as Seawall and beach areas.  The Texas Tenors were amazing as usual and being a part of their new PBS special Rise was an honor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r357912361-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>357912361</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Good Value, Clean Comfy Room, So-So Breakfast</t>
+  </si>
+  <si>
+    <t>What a bargain! After being tourists along the Seawall and The Strand we dropped in to The Rodeway Inn.   We asked for a quiet room far from the highway and were pleased that we could not hear any road noise.   The bed was very comfortable and the towels were surprisingly soft!   The swimming pool was small but would likely be popular with kids on a hot day.   The complimentary continental breakfast was limited but got us going in the morning.   Overall very good value for a comfortable basic motel room.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r341199284-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>341199284</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Great value, clean and nice staff.</t>
+  </si>
+  <si>
+    <t>We came down from Fort Worth on Saturday to go to the Houston Boat show and then on to Galveston to eat at The Spot and just be near the water. Since we had not originally planned to stay the night we found ourselves just stopping and checking rates.  While lots of places still had empty parking lots on a cold January night they were trying to charge 130-150. Yeah, we were not going to pay season high rates in January so we headed to the Rodeway. Ken was working the desk and got us in for under $70 including tax. The room was clean, the shower had recently been redone and the towels were still somewhat new. The tvs are the old box kind but we did not care. Special thanks to Ken for his kindness on the phone and his directions to come into the parking lot from the back way.  Thanks again for the good price on a last minute Saturday night room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We came down from Fort Worth on Saturday to go to the Houston Boat show and then on to Galveston to eat at The Spot and just be near the water. Since we had not originally planned to stay the night we found ourselves just stopping and checking rates.  While lots of places still had empty parking lots on a cold January night they were trying to charge 130-150. Yeah, we were not going to pay season high rates in January so we headed to the Rodeway. Ken was working the desk and got us in for under $70 including tax. The room was clean, the shower had recently been redone and the towels were still somewhat new. The tvs are the old box kind but we did not care. Special thanks to Ken for his kindness on the phone and his directions to come into the parking lot from the back way.  Thanks again for the good price on a last minute Saturday night room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r333532322-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>333532322</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Decent motel...a lttle dated in room. Bed comfortable. Nice pool, friendly staff. Weekday rates affordable. A bit from Bay but its not the Hilton. Food choices limited unless your up for a walk. Will stay again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r325961127-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>325961127</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Biker rally</t>
+  </si>
+  <si>
+    <t>This hotel was very accommodating especially when it came to housing our Toy hauler trailer. Staff was EXTREMELY NICE. Bathrooms a little dated and chalky but over all clean, Rooms were comfortable... My husband and I would definitely stay here again.. LOUISIANA TRAVELERS</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r324623898-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>324623898</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>VSP</t>
+  </si>
+  <si>
+    <t>This place is filthy.  First, I asked for a no smoking room.  The room reeked of old smoke.  The bed was miserable as it sagged in the middle.  The television was pure static. This morning I went to the lobby for coffee.  I noticed little ants crawling all over the counter.  I pointed this out to the manager.  He just said "oh yeah?"  He didn't even look towards the counter.  I got coffee from the dispenser just to see my cup full of coffee grounds!  The shower faucet would not go completely to the shower head, which resulted in a loud scream for the duration of my shower.  I got the reservation on line through Choices.  I thought I got a free night but didn't, so I had to pay for this dump!  YUCK YUCK YUCK! Come on Roadway!  MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is filthy.  First, I asked for a no smoking room.  The room reeked of old smoke.  The bed was miserable as it sagged in the middle.  The television was pure static. This morning I went to the lobby for coffee.  I noticed little ants crawling all over the counter.  I pointed this out to the manager.  He just said "oh yeah?"  He didn't even look towards the counter.  I got coffee from the dispenser just to see my cup full of coffee grounds!  The shower faucet would not go completely to the shower head, which resulted in a loud scream for the duration of my shower.  I got the reservation on line through Choices.  I thought I got a free night but didn't, so I had to pay for this dump!  YUCK YUCK YUCK! Come on Roadway!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r312808909-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>312808909</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Tired and old but clean</t>
+  </si>
+  <si>
+    <t>The hotel is old and it needs some updating but really it was surprisingly clean. The little fridge had some exterior rust, we didn't figure out how to get the bathroom light to come on until after the second shower (just be patient - the fan switch IS the light switch and it will evenutally come on), the furniture is worn and sad but I am a cleanliness freak and it was clean enough for a one night stay. The guy at the front desk was really friendly and obliging. The ice was free and the ice chest was clean. The area was quiet on a Thursday night and we (4 females) felt safe and secure.  We arrived at 3am (yes I know) and our reservations at the Marriott were set for the next day so no photos - we just needed a place to crash for a few hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The hotel is old and it needs some updating but really it was surprisingly clean. The little fridge had some exterior rust, we didn't figure out how to get the bathroom light to come on until after the second shower (just be patient - the fan switch IS the light switch and it will evenutally come on), the furniture is worn and sad but I am a cleanliness freak and it was clean enough for a one night stay. The guy at the front desk was really friendly and obliging. The ice was free and the ice chest was clean. The area was quiet on a Thursday night and we (4 females) felt safe and secure.  We arrived at 3am (yes I know) and our reservations at the Marriott were set for the next day so no photos - we just needed a place to crash for a few hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r289372137-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>289372137</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Needs a major overhaul</t>
+  </si>
+  <si>
+    <t>I know this isn't supposed to be a 5 star hotel, but I shouldn't be able to slip a college textbook under the closed door.  There were only 5 seats in the "breakfast area" in the very small lobby.  Along with the leaky bathtub and the old rusty minifridge this hotel was not very impressive at all.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r270380576-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>270380576</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Not So Great</t>
+  </si>
+  <si>
+    <t>The motel has has a face lift--new paint.  The walls are very very thin.  You can hear every noise outside as well as through the walls and the traffic.  The bed was very uncomfortable.  The bedspread is not washed in-between guests and both my husband and I suffered from allergies after one night. The toilet paper was the worst ever.  I didn't know toilet paper could be made so thin.  I'm talking paper mache' thin. If you must stay here, bring your own tp.  We will not be staying here again.  While the price is better than most in the area, it is just not worth it.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r255856988-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>255856988</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>No Rest Here</t>
+  </si>
+  <si>
+    <t>we had stay here on feb 20 to the 22nd, We didn't get that much rest the beds were not comfortable at all woke up with sore backs, the lights over bed didn't work, shower and tv worked along with some light, told the lady in the front desk all she said was I will write it down, they could of gave us some of our money back, will not stay here again.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r242724788-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>242724788</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Good hotel close to Beaches</t>
+  </si>
+  <si>
+    <t>Rooms were clean, a little dated could use renovation, plenty of parking, beds were okay, but exhaust fan in bathroom pulled in a smoke smell from other rooms.  Breakfast was  very disappointing, some ceral, a few pastries, coffee and juice.  No fruit, yogert, hot ceral or waffles, etc.  Small eating area for size of property.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r238963763-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>238963763</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Stay here!!</t>
+  </si>
+  <si>
+    <t>We got in early Sunday morning around 4am, we were only staying to sleep before boarding a carnival cruise later that day. After calling and stopping at several places along ocean and getting prices from 120.00-190.00 for 6 hours of sleep time we called Rodeway inn which is also under days inn but it's back off the road, I believe we got the room for 70 bucks. It was clean, smelled great, comfortable beds, showers were great the next morning, it was worth every penny and the check inn guy was awesome, he changed us to a ground floor suite (did not charge extra) so we wouldn't have to haul kids and bags up the stairs! This place was perfect for our family and will be our go to place next trip! Only sad thing was breakfast was put away I believe at 9:30 (we tried at 10am) but under normal circumstances (with more sleep) we would have been fine with it! MoreShow less</t>
+  </si>
+  <si>
+    <t>We got in early Sunday morning around 4am, we were only staying to sleep before boarding a carnival cruise later that day. After calling and stopping at several places along ocean and getting prices from 120.00-190.00 for 6 hours of sleep time we called Rodeway inn which is also under days inn but it's back off the road, I believe we got the room for 70 bucks. It was clean, smelled great, comfortable beds, showers were great the next morning, it was worth every penny and the check inn guy was awesome, he changed us to a ground floor suite (did not charge extra) so we wouldn't have to haul kids and bags up the stairs! This place was perfect for our family and will be our go to place next trip! Only sad thing was breakfast was put away I believe at 9:30 (we tried at 10am) but under normal circumstances (with more sleep) we would have been fine with it! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r225879282-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>225879282</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Roadway</t>
+  </si>
+  <si>
+    <t>Beds had sand fleas. Air conditioner didn't work properly. Whole place is a dump. Only good thing was the wi fi and location. Very disappointing on our family vacation. .............................................................</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r212262137-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>212262137</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>For the price I was not impressed. If the room was cheap I would be able to overlook the run down condition. The first room we were given reeked of smoke. We changed rooms and still there was still a strong odor of smoke. The beds were sagging. The fan in bathroom was hanging off. The door did not close well but the locks did engage. The pool was dirty. Not horrible but definitely not comfortable. The best part is we had beds and a shower!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r202624014-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>202624014</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this rode way.  it is a nice place to stay in Galveston. The management was nice and helpful, they make their customer very welcomed.   The young lady that cheated us in is a asset to the motel.  Breakfast was  what most rode ways have.  The breakfast room is very small.  They are in the near future planing to have a bigger room.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r200869913-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>200869913</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Clean, no frills, but good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last minute priceline purchase. Friendly staff. Free continental breakfast. Clean. No frills, nice stay. We drove in to Galveston not having a place to stay. Comfortable king size bed, good A/C and TV. Would stay there again. We'll lit parking lot. </t>
   </si>
 </sst>
 </file>
@@ -532,11 +1121,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1153,1899 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_561.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r614982158-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>5783604</t>
+  </si>
+  <si>
+    <t>614982158</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>Nice and clean for a good price. I am not the type of person to needs the best things in life.  It is not fancy, which is fine with me.  The only hotel on the island under 100.00 on a Saturday night.  As long as I have clean sheets and bathroom, I'm good.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r599273999-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>599273999</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>This is a nightmare the owner is a jack a$&amp; who doesn't care about his hotel quality or customer service please don't waste your money. You will get a roach infested room that stinks has dirty linen, no TV cause they don't work and he'll blame you for everything. He had the nerve to say that they found a crack pipe in the first room I had even though I stayed reluctantly two days later and didn't tell me till after I checked out and was driving back home to California. Bull I swear and the discount he said he would give me cause the TV didn't work he didn't give cause I so called had a crack pipe with 3 grandkids in and out. You don't get WiFi like they say it's only in the lobby and is the same internet they use for everything so it's slow and there isn't any ac in the lobby. Poor employees looked like they were dying. Please save your money do not go here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>This is a nightmare the owner is a jack a$&amp; who doesn't care about his hotel quality or customer service please don't waste your money. You will get a roach infested room that stinks has dirty linen, no TV cause they don't work and he'll blame you for everything. He had the nerve to say that they found a crack pipe in the first room I had even though I stayed reluctantly two days later and didn't tell me till after I checked out and was driving back home to California. Bull I swear and the discount he said he would give me cause the TV didn't work he didn't give cause I so called had a crack pipe with 3 grandkids in and out. You don't get WiFi like they say it's only in the lobby and is the same internet they use for everything so it's slow and there isn't any ac in the lobby. Poor employees looked like they were dying. Please save your money do not go here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r598011041-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>598011041</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Not worth your money!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked a room here but once I arrived I was very unimpressed. It is so not worth your money. Plus, what hotel doesn't provide WiFi service? The place didn't seem clean and had a weird smell. I cancelled my stay and went to different hotel. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r591900279-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
-    <t>55879</t>
-  </si>
-  <si>
-    <t>5783604</t>
-  </si>
-  <si>
     <t>591900279</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This is the dirtiest hotel I have ever seen! It’s like a third-world country! We booked these rooms for a pre-cruise overnight stay and for $150 per room we were delighted to find affordable accommodations and free cruise parking. We had three rooms. 2 had bedbug debris on the mattresses, 1 had living bedbugs. Before we decided to leave and go to a different hotel we checked out two other rooms and both had living bedbugs in the headboards and drawer rails. We are calling the health department on this place! You can see from the pictures how dirty and disgusting everything is. The mattresses had crumbs, hair, stains, spiders and the bedding had cigarette burns. The mattresses were thin, old, stained and flimsy. There was dirt and debris all over the floor. There were so many stains on the carpets I can’t believe this hotel thinks these rooms are habitable. No microwave, fridge, coffee pot.... thrift store quality furniture.... just terrible! The manager could really care less. They thought they could overcome the bedbugs by giving us 50% off. I wouldn’t stay if the rooms were free! I will never stay in another Rodeway or Choice brand hotel! We promptly left for the Candlewood Inn and Suites in Texas City and had the most luxurious and comfortable room for the same price. Don’t stay here. At any price it’s not worth it! More</t>
   </si>
   <si>
@@ -216,6 +270,48 @@
     <t>Booked 2 rooms on June 23 2018 and I will never stay at this hotel again.  No Wi-Fi, in either room available, one of our rooms did not have a phone in it and after contacting room service they never brought one. Hardly any signal for cell phones while in the rooms. People walking around vehicles at all hours of the night, noisy and the bed mattress in these rooms are hard as a rock.  Do yourself a favor and book rooms elsewhere.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r572259880-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>572259880</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Good job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job, What a friendly group of people, I was pleasantly surprised how clean the room was and the staff was very , very accommodating to my needs and made last minute changes for me and my guest, thanks for everything </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r564928983-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>564928983</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Well...</t>
+  </si>
+  <si>
+    <t>A friend booked this hotel for us and another couple to stay the night before a cruise. It was clean...thats about it. Outdated decor and neighborhood was a little sketchy. Sits off the main highway and there is alot of road noise. Probably wont stay again...you get what you pay for.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r557251850-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -252,9 +348,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r536423380-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -271,6 +364,39 @@
   </si>
   <si>
     <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r531419435-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>531419435</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointing. Disgusting. Dirty.</t>
+  </si>
+  <si>
+    <t>We stayed here one night before a cruise--it was rated three stars, so we thought it couldn't be too bad. But it barely deserves 1 star!  I couldn't wait to get out of there.  Find an Uber and sleep in the back seat, before you stay here. UGH!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r531222791-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>531222791</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>This place is a dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very shady characters all around. Room was barely clean. Spiders and chipping paint in bathroom. Cigarette burns on bedspread. No liners in trash cans. There are NO restaurant or fast food in walking distance. Do not believe front desk if they say otherwise. There is a mini mart next door but there are more shady characters. Glad this was quick one night before our cruise. Next time I will pay more for a safer night rest. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r514022354-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
@@ -293,9 +419,6 @@
 The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than...I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)The room was a pleasant surprise. The bed was king-sized and comfortable. The comforter did have cigarette burns but it was clean and nothing smelled smoky. The room was very clean. While my partner complained that the water pulsed, I didn't share that experience.We came in sandy but the housekeepers were excellent at cleaning up all signs of sand. The showerhead had enough power to rid us of sand. (Tip: Always check your belly button for sand!) The room was quiet. It had an added benefit: we could watch the city's firework show from our room (on the second floor).The one complaint I might have is that we needed more towels. The beach left us wanting to shower more than once a day. However, I understand that hotel guests often steal towels, especially in a beach town. We'd brought extras from home because of that.At this price with these amenities, I'd stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>I had an event in Houston and I decided to stretch it out to a weekend in Galveston. When I looked at hotels, I nearly gave up in despair. Other hotels were quoting over $300/night. Then I spotted this deal.
 I was worried about the price. I consoled myself that I planned to spend all my time at the beach and wouldn't need the room much.
 The front desk, very friendly, was very busy when I arrived. I learned that they accepted cash and credit. I also saw that the breakfast area was small, too small for the number of families staying there. (We bought our own breakfasts and lunches and stored the food in the room's fridge.)
@@ -343,12 +466,45 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We had a room with a king-size bed, TV, refrigerator and air conditioning.  There was also a desk area with a phone.  I didn't see any of the plug-ins for a computer if one needed one.The bed was very comfortable and the shower had good water pressure for a nice shower.Even though the hotel is next to a busy highway, our room was quiet.  We had room 104.When we took the exit off of I-45 for the hotel, the sign, and entrance, were hidden by tall shrubs and trees.  We missed the hotel entrance and had to drive around a few blocks trying to find a way back into the entrance.  We sent an e-mail to the hotel suggesting that whomever owns the tall shrubs and trees to trim them back so that the hotel sign could be seen.The receptionist had a map of Galveston Island and we asked if we could get one.  She told us sure, for $3.50.  We bought one so that we could see how to get to the ship port for our cruise.  It would be nice if the hotel had the same map in a smaller format to be given to their guests.This hotel is a very good place to stay for a night or two either before or after a cruise.  The price was very reasonable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r484741700-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>484741700</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Rodeway Inn, Galveston, TX</t>
+  </si>
+  <si>
+    <t>Check in was easy and painless.  We chose this motel because it was not far to the cruise terminal plus they would keep our vehicle in their lot for free during the length of our cruise.  And although we usually stay at the Comfort Inn who provides the same service plus a flat rate shuttle if $15 round trip.  So we had to use a taxi at this one which did cost more.The room was fairly clean but the cleaning solvent smell was so strong we went out and bought a spray bottle of Fabreze to use on everything, including our suitcase.  So, if you choose this motel you might want to check out the room before you finalize your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was easy and painless.  We chose this motel because it was not far to the cruise terminal plus they would keep our vehicle in their lot for free during the length of our cruise.  And although we usually stay at the Comfort Inn who provides the same service plus a flat rate shuttle if $15 round trip.  So we had to use a taxi at this one which did cost more.The room was fairly clean but the cleaning solvent smell was so strong we went out and bought a spray bottle of Fabreze to use on everything, including our suitcase.  So, if you choose this motel you might want to check out the room before you finalize your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r480241180-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>480241180</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Pretty nice</t>
+  </si>
+  <si>
+    <t>Front desk was very nice. We had 2 rooms 204 and 205. The comforter in 205 could use to be changed. It had cigarette burn in it and the towels could use upgraded. But we had a great night thank you. Breakfast is not that great but its ok.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r463260312-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -403,6 +559,42 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r455635635-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>455635635</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>If you really want to save money...I guess...</t>
+  </si>
+  <si>
+    <t>We stayed here the night before a cruise, mostly because it was cheap and the photos looked ok. But that cheap price tag was literally the only positive. And the photos were definitely deceiving. Our door didn't close right, the refrigerator was gross and there's a vague smell to the place. I mean, we didn't see any bugs, so yay? Also, my husband went to check out the continental breakfast that was advertised and found it was only made up of stale bread and cereal - but no milk. If you legitimately need a place to sleep for one night. But anything other than that, spend the extra money.I will definitely spend extra money to avoid this place next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here the night before a cruise, mostly because it was cheap and the photos looked ok. But that cheap price tag was literally the only positive. And the photos were definitely deceiving. Our door didn't close right, the refrigerator was gross and there's a vague smell to the place. I mean, we didn't see any bugs, so yay? Also, my husband went to check out the continental breakfast that was advertised and found it was only made up of stale bread and cereal - but no milk. If you legitimately need a place to sleep for one night. But anything other than that, spend the extra money.I will definitely spend extra money to avoid this place next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r446135999-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>446135999</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>fine for a night stay</t>
+  </si>
+  <si>
+    <t>stayed here after a long day of driving to get onto cruise ship.  Room was fine, clean, staff was friendly.  Cruise was delayed due to weather for a few hours , we asked if we could delay checkout till noon- wasn't a problem , the staff was nice about it.   Descent place, no problems.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r432507284-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -457,6 +649,42 @@
     <t xml:space="preserve">Rodeway Inn: Great price,  very friendly and helpful staff,  clean facility.  Was close to the beautiful Grand 1894 Opera House as well as Seawall and beach areas.  The Texas Tenors were amazing as usual and being a part of their new PBS special Rise was an honor. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r386714851-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>386714851</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Cheap hotel</t>
+  </si>
+  <si>
+    <t>Don't ask for extra pillows or clean towels because you will not get them. It's a dive hotel. About 2" of dirt,  dust &amp; grime between the walls &amp; furniture.  The bathroom was so disgusting my teenage son didn't want to use it.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r376706601-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>376706601</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We stayed here the night before a cruise. It was a nice, clean comfortable room. The staff was friendly and helpful.  There is no shuttle available, but they will call a cab for you and advise that you be patient with the cab service as it may take a while if they are busy.  Our cab came immediately, we didn't have to wait longer than a few minutes. We were very pleased with the stay and would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r357912361-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -517,6 +745,39 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r332223537-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>332223537</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>complaint to Motel and Choice Privileges</t>
+  </si>
+  <si>
+    <t>First, if you pay not matter if it $65 or above you still should have a descent clean rooms and id you go through a company to book the room they should let you know ahead the rating. I need to say after reading 177 complaints about Choice Privileges now I’m wondering about your company if you really care for your costumers and their complaints. I was on hold for 23 minutes holding for customer complaint and still no answer. I am very DISAPPOINTED, Shame on Choice Privileges using this motel ( hourly motel) in making my reservation I asked if this hotel was like Comforts hotels…Rodeway Inn is a motel NOT a hotel. Second room # 131, the beds are horrible worn out, the rooms are not clean and the towels are filthy ( we had to by towels to use) … and this was my second room, because the first room #125 was not clean where someone(s) else had been laying in the beds and the smoke detector was beeping. There was so much disturbance from outside we woke up frighten from the noise. In trying to go back to sleep the noise woke us up again at 3:30am so we decided to get dress an leave. The TV is over 20 years and the remote has a RUBBERBAND holding it together.For, the cost of this room, false information on reviews given and only 3 hours of sleep...First, if you pay not matter if it $65 or above you still should have a descent clean rooms and id you go through a company to book the room they should let you know ahead the rating. I need to say after reading 177 complaints about Choice Privileges now I’m wondering about your company if you really care for your costumers and their complaints. I was on hold for 23 minutes holding for customer complaint and still no answer. I am very DISAPPOINTED, Shame on Choice Privileges using this motel ( hourly motel) in making my reservation I asked if this hotel was like Comforts hotels…Rodeway Inn is a motel NOT a hotel. Second room # 131, the beds are horrible worn out, the rooms are not clean and the towels are filthy ( we had to by towels to use) … and this was my second room, because the first room #125 was not clean where someone(s) else had been laying in the beds and the smoke detector was beeping. There was so much disturbance from outside we woke up frighten from the noise. In trying to go back to sleep the noise woke us up again at 3:30am so we decided to get dress an leave. The TV is over 20 years and the remote has a RUBBERBAND holding it together.For, the cost of this room, false information on reviews given and only 3 hours of sleep I need to get a REFUND. If this is the type of service that can be expect from CHOICE in the future then I need to reconsider NOT using you all in the coming year(s). Reservation # 66574385MoreShow less</t>
+  </si>
+  <si>
+    <t>First, if you pay not matter if it $65 or above you still should have a descent clean rooms and id you go through a company to book the room they should let you know ahead the rating. I need to say after reading 177 complaints about Choice Privileges now I’m wondering about your company if you really care for your costumers and their complaints. I was on hold for 23 minutes holding for customer complaint and still no answer. I am very DISAPPOINTED, Shame on Choice Privileges using this motel ( hourly motel) in making my reservation I asked if this hotel was like Comforts hotels…Rodeway Inn is a motel NOT a hotel. Second room # 131, the beds are horrible worn out, the rooms are not clean and the towels are filthy ( we had to by towels to use) … and this was my second room, because the first room #125 was not clean where someone(s) else had been laying in the beds and the smoke detector was beeping. There was so much disturbance from outside we woke up frighten from the noise. In trying to go back to sleep the noise woke us up again at 3:30am so we decided to get dress an leave. The TV is over 20 years and the remote has a RUBBERBAND holding it together.For, the cost of this room, false information on reviews given and only 3 hours of sleep...First, if you pay not matter if it $65 or above you still should have a descent clean rooms and id you go through a company to book the room they should let you know ahead the rating. I need to say after reading 177 complaints about Choice Privileges now I’m wondering about your company if you really care for your costumers and their complaints. I was on hold for 23 minutes holding for customer complaint and still no answer. I am very DISAPPOINTED, Shame on Choice Privileges using this motel ( hourly motel) in making my reservation I asked if this hotel was like Comforts hotels…Rodeway Inn is a motel NOT a hotel. Second room # 131, the beds are horrible worn out, the rooms are not clean and the towels are filthy ( we had to by towels to use) … and this was my second room, because the first room #125 was not clean where someone(s) else had been laying in the beds and the smoke detector was beeping. There was so much disturbance from outside we woke up frighten from the noise. In trying to go back to sleep the noise woke us up again at 3:30am so we decided to get dress an leave. The TV is over 20 years and the remote has a RUBBERBAND holding it together.For, the cost of this room, false information on reviews given and only 3 hours of sleep I need to get a REFUND. If this is the type of service that can be expect from CHOICE in the future then I need to reconsider NOT using you all in the coming year(s). Reservation # 66574385More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r331103641-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>331103641</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Great price.</t>
+  </si>
+  <si>
+    <t>You get what you pay for.  Very plain, no frills.  Great place to sleep.  TV was not great.  Breakfast was very small with not a big selection.  Room was clean.  Location was great.  Easy to get to The Strand, the Ferry, the Seawall.  Several people staying were going on a cruise.  For the price, it had all we needed.  The gentleman at Front Desk was super nice and offered a lot of ideas to do on the island.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r325961127-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -574,6 +835,42 @@
     <t>The hotel is old and it needs some updating but really it was surprisingly clean. The little fridge had some exterior rust, we didn't figure out how to get the bathroom light to come on until after the second shower (just be patient - the fan switch IS the light switch and it will evenutally come on), the furniture is worn and sad but I am a cleanliness freak and it was clean enough for a one night stay. The guy at the front desk was really friendly and obliging. The ice was free and the ice chest was clean. The area was quiet on a Thursday night and we (4 females) felt safe and secure.  We arrived at 3am (yes I know) and our reservations at the Marriott were set for the next day so no photos - we just needed a place to crash for a few hours.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r296112970-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>296112970</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>SUMMER GETAWAY FOR ONE DAY</t>
+  </si>
+  <si>
+    <t>The price was great and the room needs to have a face lift and the beds aren't soft and the ac didn't cool that great but just to sleep in it for a couple of hours was ok for the price we paid. the kids loved the pool but the tv needs to be upgraded and the stairs or very steep</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r292942232-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>292942232</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Not a Good Experience!</t>
+  </si>
+  <si>
+    <t>Imagine spending eight hours on the beach. You are dirty, sweaty, tired and sleepy. You get to the hotel and check in with your kids. The kids searched endlessly for the remote control, never found it. You pick up the hotel phone to call the front desk, it doesn't work. So you then try to troubleshoot on why the TV won't work because the kids can't do without Animal Planet. Ugh, not working. You call the front desk by holding the cord in the phone receiver. A very nice woman says I will bring you a remote. Fifteen minutes later she called to ask what kind of TV you have in your room. Another 15 minutes later, she brings a remote control and it doesn't work. She says, "Can you wait a half hour, my husband will come fix the TV?"  After 45 minutes, I decide to call down and say forget it. Not worth having a strange man in my room after 10:00 p.m. The room was decent and clean. The woman at the front desk was pleasant, but I felt since I checked in after 9:00 p.m. I was given the worst room the hotel had to offer. I didn't have all the amenities I paid (too much) for and I am very disappointed. The two star rating is for the kindness of the woman at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Imagine spending eight hours on the beach. You are dirty, sweaty, tired and sleepy. You get to the hotel and check in with your kids. The kids searched endlessly for the remote control, never found it. You pick up the hotel phone to call the front desk, it doesn't work. So you then try to troubleshoot on why the TV won't work because the kids can't do without Animal Planet. Ugh, not working. You call the front desk by holding the cord in the phone receiver. A very nice woman says I will bring you a remote. Fifteen minutes later she called to ask what kind of TV you have in your room. Another 15 minutes later, she brings a remote control and it doesn't work. She says, "Can you wait a half hour, my husband will come fix the TV?"  After 45 minutes, I decide to call down and say forget it. Not worth having a strange man in my room after 10:00 p.m. The room was decent and clean. The woman at the front desk was pleasant, but I felt since I checked in after 9:00 p.m. I was given the worst room the hotel had to offer. I didn't have all the amenities I paid (too much) for and I am very disappointed. The two star rating is for the kindness of the woman at the front desk.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r289372137-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -589,9 +886,6 @@
     <t>I know this isn't supposed to be a 5 star hotel, but I shouldn't be able to slip a college textbook under the closed door.  There were only 5 seats in the "breakfast area" in the very small lobby.  Along with the leaky bathtub and the old rusty minifridge this hotel was not very impressive at all.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r270380576-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -628,6 +922,39 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r252079355-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>252079355</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY</t>
+  </si>
+  <si>
+    <t>I had a horrible experience. The first room they gave me nothing worked an it smelled like smoke. The second room they put me in the t.v didnt work. The management sucks. The would not move me. All they wanted to do is refund me 30 dollars on a 80.00 room.Never again....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r248710557-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>248710557</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Do not stay.</t>
+  </si>
+  <si>
+    <t>Smoke alarm was broke kept going off, police sirens every hour then the train and to save the best for last the toilet was stopped up.   The good reviews must have come from relatives because no sane person would give this a good review. Pathetic</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r242724788-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -679,6 +1006,39 @@
     <t>Beds had sand fleas. Air conditioner didn't work properly. Whole place is a dump. Only good thing was the wi fi and location. Very disappointing on our family vacation. .............................................................</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r216499179-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>216499179</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>It's okay for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room had a bad odor. Very outdated. Huge gap between door and frame when door was closed. We had no trash bags and phone was broken. However it was pretty clean and the a c cooled the room the way we like it. Would stay here again for short trips in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r213457083-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>213457083</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Great cheap hotel on the island!!!</t>
+  </si>
+  <si>
+    <t>If you are looking for crystal chandeliers or full hot buffet breakfast, then go somewhere else. But, if you are wanting a good cheap hotel, that is comfortable, clean, and will take care of you on the island, then this is the place. We booked here and stayed for $550 for 5 days including the 4th of July. Front desk staff were very helpful, the breakfast was small but great, and the room was wonderful as well. This is not the hilton, but it is a good place to stay in Galveston. We will definitely stay again when in the area.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r212262137-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -728,6 +1088,24 @@
   </si>
   <si>
     <t xml:space="preserve">Last minute priceline purchase. Friendly staff. Free continental breakfast. Clean. No frills, nice stay. We drove in to Galveston not having a place to stay. Comfortable king size bed, good A/C and TV. Would stay there again. We'll lit parking lot. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d5783604-r198783026-Rodeway_Inn-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>198783026</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>This was a last minute booking and being on the end of spring break, we were lucky to get it.The room was very clean and about a mile from the seawall. The staff was friendly and helpful. If i had to say anything negative, it would be the shower knob wouldn't pull all he way up so had minimal pressure.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1282,7 +1660,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1298,47 +1676,41 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1384,22 +1756,14 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1463,7 +1827,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1479,7 +1843,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1488,37 +1852,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1526,7 +1890,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1563,25 +1927,23 @@
         <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
         <v>3</v>
       </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1605,54 +1967,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
-      </c>
-      <c r="L8" t="s">
-        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1668,34 +2024,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
         <v>97</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1709,7 +2065,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1725,54 +2081,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1788,48 +2138,54 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -1845,46 +2201,46 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
         <v>3</v>
       </c>
-      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1892,7 +2248,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1908,44 +2264,46 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1953,7 +2311,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1969,54 +2327,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
         <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>129</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +2384,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2041,37 +2393,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2079,7 +2431,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2095,31 +2447,31 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>112</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2136,7 +2488,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2152,44 +2504,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>145</v>
       </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>148</v>
-      </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2197,7 +2551,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2213,43 +2567,41 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>4</v>
@@ -2260,7 +2612,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -2276,34 +2628,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
         <v>156</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>157</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>158</v>
       </c>
-      <c r="K19" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>161</v>
-      </c>
       <c r="O19" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2317,7 +2669,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2333,58 +2685,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
         <v>163</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" t="s">
-        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -2400,48 +2742,54 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
         <v>169</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>168</v>
-      </c>
       <c r="O21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -2457,41 +2805,39 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
         <v>175</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>176</v>
-      </c>
-      <c r="J22" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>180</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -2504,7 +2850,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -2520,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2529,43 +2875,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -2581,46 +2923,44 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
         <v>188</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L24" t="s">
-        <v>192</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>193</v>
-      </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2628,7 +2968,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
@@ -2644,46 +2984,46 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>194</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" t="s">
-        <v>197</v>
-      </c>
-      <c r="L25" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>199</v>
-      </c>
       <c r="O25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" t="n">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2691,7 +3031,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -2707,44 +3047,46 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" t="s">
-        <v>202</v>
-      </c>
-      <c r="K26" t="s">
-        <v>203</v>
-      </c>
-      <c r="L26" t="s">
-        <v>204</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2752,7 +3094,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -2768,54 +3110,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
         <v>206</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" t="s">
-        <v>209</v>
-      </c>
-      <c r="L27" t="s">
-        <v>210</v>
-      </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="N27" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
@@ -2831,31 +3167,35 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
         <v>212</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J28" t="s">
-        <v>214</v>
-      </c>
-      <c r="K28" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" t="s">
-        <v>216</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -2868,7 +3208,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
@@ -2884,48 +3224,54 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
         <v>217</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>218</v>
       </c>
-      <c r="J29" t="s">
-        <v>219</v>
-      </c>
-      <c r="K29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L29" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>222</v>
-      </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -2941,50 +3287,44 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
         <v>223</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>224</v>
-      </c>
-      <c r="J30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K30" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" t="s">
-        <v>227</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2992,7 +3332,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -3008,44 +3348,1386 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
         <v>229</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>230</v>
-      </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" t="s">
-        <v>233</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
+      <c r="N31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>238</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>267</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" t="s">
+        <v>285</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>274</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>299</v>
+      </c>
+      <c r="J43" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>302</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>304</v>
+      </c>
+      <c r="J44" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" t="s">
+        <v>306</v>
+      </c>
+      <c r="L44" t="s">
+        <v>307</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>308</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" t="s">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s">
+        <v>313</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>314</v>
+      </c>
+      <c r="O45" t="s">
+        <v>238</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s">
+        <v>319</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>322</v>
+      </c>
+      <c r="J47" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" t="s">
+        <v>325</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" t="s">
+        <v>328</v>
+      </c>
+      <c r="K48" t="s">
+        <v>329</v>
+      </c>
+      <c r="L48" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>332</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s">
+        <v>335</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>344</v>
+      </c>
+      <c r="J51" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" t="s">
+        <v>346</v>
+      </c>
+      <c r="L51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>348</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>350</v>
+      </c>
+      <c r="J52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>352</v>
+      </c>
+      <c r="L52" t="s">
+        <v>353</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20924</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>355</v>
+      </c>
+      <c r="J53" t="s">
+        <v>356</v>
+      </c>
+      <c r="K53" t="s">
+        <v>357</v>
+      </c>
+      <c r="L53" t="s">
+        <v>358</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>359</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
